--- a/model/results/grey_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/grey_ggpos_h2pos/v_mix.xlsx
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>12288253.33333333</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19595592.03690984</v>
+        <v>13221845.61429965</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2801129.866741995</v>
+        <v>17952418.6967823</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2104582.999448846</v>
+        <v>11063951.00514201</v>
       </c>
     </row>
     <row r="5">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1999999.999999998</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17241804.26331643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13247281.59959083</v>
+        <v>11796084.24630417</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19615187.62894675</v>
+        <v>13235067.45991395</v>
       </c>
     </row>
     <row r="3">
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2803930.996608736</v>
+        <v>17970371.11547909</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2106687.582448295</v>
+        <v>11075014.95614716</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17261046.06757975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13260528.88119042</v>
+        <v>11807880.33055047</v>
       </c>
     </row>
     <row r="7">
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19634802.8165757</v>
+        <v>13248302.52737386</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2806734.927605344</v>
+        <v>17988341.48659457</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2108794.270030743</v>
+        <v>11086089.97110331</v>
       </c>
     </row>
     <row r="5">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17280307.11364732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13273789.41007161</v>
+        <v>11819688.21088102</v>
       </c>
     </row>
     <row r="7">
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19654437.61939228</v>
+        <v>13261550.82990123</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2809541.66253295</v>
+        <v>18006329.82808116</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2110903.064300773</v>
+        <v>11097176.0610744</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17299587.42076097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13287063.19948168</v>
+        <v>11831507.8990919</v>
       </c>
     </row>
     <row r="7">
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19674092.05701166</v>
+        <v>13274812.38073113</v>
       </c>
     </row>
     <row r="3">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2812351.204195483</v>
+        <v>18024336.15790924</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2113013.967365074</v>
+        <v>11108273.23713548</v>
       </c>
     </row>
     <row r="5">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17318887.00818173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13300350.26268116</v>
+        <v>11843339.40699099</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19693766.14906867</v>
+        <v>13288087.19311186</v>
       </c>
     </row>
     <row r="3">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2115126.981332439</v>
+        <v>11119381.51037262</v>
       </c>
     </row>
     <row r="5">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>15838205.89518991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13313650.61294384</v>
+        <v>11855182.74639798</v>
       </c>
     </row>
     <row r="7">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2815163.555399678</v>
+        <v>18042360.49406715</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19713459.91521774</v>
+        <v>14291972.8952539</v>
       </c>
     </row>
     <row r="3">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2117242.108313771</v>
+        <v>1971249.47487253</v>
       </c>
     </row>
     <row r="5">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>3280594.316078633</v>
       </c>
       <c r="C5" t="n">
-        <v>15857544.1010851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13326964.26355678</v>
+        <v>11867037.92914438</v>
       </c>
     </row>
     <row r="7">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2817978.718955078</v>
+        <v>23481311.87266579</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19733173.37513296</v>
+        <v>14306264.86814914</v>
       </c>
     </row>
     <row r="3">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2119359.350422085</v>
+        <v>1973220.724347403</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>3283874.91039471</v>
       </c>
       <c r="C5" t="n">
-        <v>15876901.64518618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13340291.22782034</v>
+        <v>11878904.96707352</v>
       </c>
     </row>
     <row r="7">
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2820796.697674032</v>
+        <v>23504793.18453846</v>
       </c>
     </row>
   </sheetData>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19752906.54850809</v>
+        <v>14320571.13301729</v>
       </c>
     </row>
     <row r="3">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2121478.709772507</v>
+        <v>1975193.94507175</v>
       </c>
     </row>
     <row r="5">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>3287158.785305105</v>
       </c>
       <c r="C5" t="n">
-        <v>15896278.54683136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13353631.51904816</v>
+        <v>11890783.87204059</v>
       </c>
     </row>
     <row r="7">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2823617.494371706</v>
+        <v>23528297.977723</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19772659.45505659</v>
+        <v>14334891.70415032</v>
       </c>
     </row>
     <row r="3">
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2123600.188482278</v>
+        <v>1977169.139016821</v>
       </c>
     </row>
     <row r="5">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3500000</v>
+        <v>3290445.944090422</v>
       </c>
       <c r="C5" t="n">
-        <v>15915674.82537819</v>
+        <v>6.735731971528654e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13366985.1505672</v>
+        <v>11902674.65591263</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2826441.111866077</v>
+        <v>23551826.27570072</v>
       </c>
     </row>
   </sheetData>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9826772.279813156</v>
+        <v>8546944.079748148</v>
       </c>
     </row>
     <row r="3">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11359162.69049751</v>
+        <v>9695663.977999998</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22521292.95004311</v>
+        <v>18360639.80862222</v>
       </c>
     </row>
     <row r="5">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12300541.58666667</v>
+        <v>11161681.19733333</v>
       </c>
     </row>
     <row r="7">
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.648961968042634e-11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19792432.11451165</v>
+        <v>14349226.59585446</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2125723.788670761</v>
+        <v>1979146.308155838</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3499999.999999998</v>
+        <v>3293736.390034512</v>
       </c>
       <c r="C5" t="n">
-        <v>15935090.50020357</v>
+        <v>-1.234558203003623e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13380352.13571777</v>
+        <v>11914577.33056854</v>
       </c>
     </row>
     <row r="7">
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2829267.552977943</v>
+        <v>23575378.1019764</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9836599.05209296</v>
+        <v>8555491.023827894</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11370521.853188</v>
+        <v>9705359.641977996</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22543814.24299315</v>
+        <v>18379000.44843083</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12312842.12825333</v>
+        <v>11172842.87853066</v>
       </c>
     </row>
     <row r="7">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.382876118645072e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9846435.65114506</v>
+        <v>8564046.514851721</v>
       </c>
     </row>
     <row r="3">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11381892.37504119</v>
+        <v>9715065.001619974</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>22566358.05723613</v>
+        <v>18397379.44887925</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12325154.97038158</v>
+        <v>11184015.7214092</v>
       </c>
     </row>
     <row r="7">
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.837179297581315e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13489737.53691044</v>
+        <v>12670156.54795709</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6319011.649306815</v>
+        <v>5346653.253226601</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23582289.62866229</v>
+        <v>22889821.06526918</v>
       </c>
     </row>
     <row r="5">
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12132210.42849662</v>
+        <v>10989930.04027526</v>
       </c>
     </row>
     <row r="7">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13503227.27444735</v>
+        <v>12682826.70450505</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6325330.660956122</v>
+        <v>5351999.906479824</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23605871.91829095</v>
+        <v>22912710.88633445</v>
       </c>
     </row>
     <row r="5">
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12144342.63892511</v>
+        <v>11000919.97031553</v>
       </c>
     </row>
     <row r="7">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13516730.5017218</v>
+        <v>12695509.53120955</v>
       </c>
     </row>
     <row r="3">
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6331655.991617076</v>
+        <v>17337034.65444832</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23629477.79020925</v>
+        <v>10955940.84915878</v>
       </c>
     </row>
     <row r="5">
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12156486.98156404</v>
+        <v>11011920.89028585</v>
       </c>
     </row>
     <row r="7">
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.546585164964199e-11</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14214166.34912264</v>
+        <v>13195441.53578654</v>
       </c>
     </row>
     <row r="3">
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7127125.090184604</v>
+        <v>17916567.64492482</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23758325.59367623</v>
+        <v>11041856.2507842</v>
       </c>
     </row>
     <row r="5">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13220826.72531348</v>
+        <v>11772527.41893887</v>
       </c>
     </row>
     <row r="7">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14228380.51547176</v>
+        <v>13208636.97732233</v>
       </c>
     </row>
     <row r="3">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>7134252.21527479</v>
+        <v>17934484.21256974</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23782083.91926991</v>
+        <v>11052898.10703498</v>
       </c>
     </row>
     <row r="5">
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13234047.55203879</v>
+        <v>11784299.94635781</v>
       </c>
     </row>
     <row r="7">
